--- a/database/industries/chemical/sharum/product/quarterly_seprated.xlsx
+++ b/database/industries/chemical/sharum/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\chemical\sharum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3D7708-3938-44C9-A6E7-7D8EFC2D9BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BF013-F59A-4C40-B173-FCFCE32FF0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>شاروم-پتروشیمی ارومیه</t>
@@ -37,6 +37,33 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/12</t>
   </si>
   <si>
@@ -65,6 +92,9 @@
   </si>
   <si>
     <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -663,16 +693,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N107"/>
+  <dimension ref="B1:X107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -686,8 +716,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -703,8 +743,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,8 +770,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -735,8 +795,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -752,8 +822,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -769,8 +849,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -784,8 +874,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -821,8 +921,38 @@
       <c r="N8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -836,8 +966,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -851,10 +991,20 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -868,242 +1018,432 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="E12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="9">
+        <v>329</v>
+      </c>
+      <c r="N12" s="9">
         <v>1331</v>
       </c>
-      <c r="F12" s="9">
+      <c r="O12" s="9">
         <v>4567</v>
       </c>
-      <c r="G12" s="9">
+      <c r="P12" s="9">
         <v>408</v>
       </c>
-      <c r="H12" s="9">
+      <c r="Q12" s="9">
         <v>827</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="R12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="9">
         <v>2891</v>
       </c>
-      <c r="K12" s="9">
+      <c r="T12" s="9">
         <v>5538</v>
       </c>
-      <c r="L12" s="9">
+      <c r="U12" s="9">
         <v>6693</v>
       </c>
-      <c r="M12" s="9">
+      <c r="V12" s="9">
         <v>3992</v>
       </c>
-      <c r="N12" s="9">
+      <c r="W12" s="9">
         <v>12645</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X12" s="9">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="E13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="13">
+        <v>6480</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="13">
+        <v>-22339</v>
+      </c>
+      <c r="K13" s="13">
+        <v>15136</v>
+      </c>
+      <c r="L13" s="13">
+        <v>10430</v>
+      </c>
+      <c r="M13" s="13">
+        <v>10057</v>
+      </c>
+      <c r="N13" s="13">
         <v>11154</v>
       </c>
-      <c r="F13" s="13">
+      <c r="O13" s="13">
         <v>7445</v>
       </c>
-      <c r="G13" s="13">
+      <c r="P13" s="13">
         <v>5340</v>
       </c>
-      <c r="H13" s="13">
+      <c r="Q13" s="13">
         <v>3468</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="13">
+      <c r="R13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="13">
         <v>4514</v>
       </c>
-      <c r="K13" s="13">
+      <c r="T13" s="13">
         <v>7112</v>
       </c>
-      <c r="L13" s="13">
+      <c r="U13" s="13">
         <v>3547</v>
       </c>
-      <c r="M13" s="13">
+      <c r="V13" s="13">
         <v>8415</v>
       </c>
-      <c r="N13" s="13">
+      <c r="W13" s="13">
         <v>11723</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X13" s="13">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="9">
+        <v>725</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="9">
+        <v>-2581</v>
+      </c>
+      <c r="K14" s="9">
+        <v>974</v>
+      </c>
+      <c r="L14" s="9">
+        <v>929</v>
+      </c>
+      <c r="M14" s="9">
+        <v>803</v>
+      </c>
+      <c r="N14" s="9">
         <v>983</v>
       </c>
-      <c r="F14" s="9">
+      <c r="O14" s="9">
         <v>413</v>
       </c>
-      <c r="G14" s="9">
+      <c r="P14" s="9">
         <v>505</v>
       </c>
-      <c r="H14" s="9">
+      <c r="Q14" s="9">
         <v>684</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="R14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" s="9">
         <v>595</v>
       </c>
-      <c r="K14" s="9">
+      <c r="T14" s="9">
         <v>549</v>
       </c>
-      <c r="L14" s="9">
+      <c r="U14" s="9">
         <v>1609</v>
       </c>
-      <c r="M14" s="9">
+      <c r="V14" s="9">
         <v>1254</v>
       </c>
-      <c r="N14" s="9">
+      <c r="W14" s="9">
         <v>445</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X14" s="9">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="13">
+      <c r="E15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="13">
+        <v>5432</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="13">
+        <v>-14587</v>
+      </c>
+      <c r="K15" s="13">
+        <v>3916</v>
+      </c>
+      <c r="L15" s="13">
+        <v>3819</v>
+      </c>
+      <c r="M15" s="13">
+        <v>5334</v>
+      </c>
+      <c r="N15" s="13">
         <v>2951</v>
       </c>
-      <c r="F15" s="13">
+      <c r="O15" s="13">
         <v>3701</v>
       </c>
-      <c r="G15" s="13">
+      <c r="P15" s="13">
         <v>3269</v>
       </c>
-      <c r="H15" s="13">
+      <c r="Q15" s="13">
         <v>3663</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="R15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="13">
         <v>1301</v>
       </c>
-      <c r="K15" s="13">
+      <c r="T15" s="13">
         <v>3190</v>
       </c>
-      <c r="L15" s="13">
+      <c r="U15" s="13">
         <v>5520</v>
       </c>
-      <c r="M15" s="13">
+      <c r="V15" s="13">
         <v>1457</v>
       </c>
-      <c r="N15" s="13">
+      <c r="W15" s="13">
         <v>521</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X15" s="13">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="9">
+        <v>2583</v>
+      </c>
+      <c r="N16" s="9">
         <v>-2583</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>12637</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>-39507</v>
+      </c>
+      <c r="K17" s="15">
+        <v>20026</v>
+      </c>
+      <c r="L17" s="15">
+        <v>15178</v>
+      </c>
+      <c r="M17" s="15">
+        <v>19106</v>
+      </c>
+      <c r="N17" s="15">
         <v>13836</v>
       </c>
-      <c r="F17" s="15">
+      <c r="O17" s="15">
         <v>16126</v>
       </c>
-      <c r="G17" s="15">
+      <c r="P17" s="15">
         <v>9522</v>
       </c>
-      <c r="H17" s="15">
+      <c r="Q17" s="15">
         <v>8642</v>
       </c>
-      <c r="I17" s="15">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
+        <v>0</v>
+      </c>
+      <c r="S17" s="15">
         <v>9301</v>
       </c>
-      <c r="K17" s="15">
+      <c r="T17" s="15">
         <v>16389</v>
       </c>
-      <c r="L17" s="15">
+      <c r="U17" s="15">
         <v>17369</v>
       </c>
-      <c r="M17" s="15">
+      <c r="V17" s="15">
         <v>15118</v>
       </c>
-      <c r="N17" s="15">
+      <c r="W17" s="15">
         <v>25334</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X17" s="15">
+        <v>11141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1117,125 +1457,225 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
+        <v>28</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
         <v>500</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="R19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="9">
         <v>1200</v>
       </c>
-      <c r="K19" s="9">
+      <c r="T19" s="9">
         <v>1600</v>
       </c>
-      <c r="L19" s="9">
+      <c r="U19" s="9">
         <v>3600</v>
       </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X19" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13">
+      <c r="E20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
         <v>200</v>
       </c>
-      <c r="F20" s="13">
+      <c r="O20" s="13">
         <v>310</v>
       </c>
-      <c r="G20" s="13">
+      <c r="P20" s="13">
         <v>640</v>
       </c>
-      <c r="H20" s="13">
+      <c r="Q20" s="13">
         <v>357</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13">
-        <v>0</v>
-      </c>
-      <c r="L20" s="13">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13">
-        <v>0</v>
-      </c>
-      <c r="N20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20" s="13">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
         <v>200</v>
       </c>
-      <c r="F21" s="17">
+      <c r="O21" s="17">
         <v>310</v>
       </c>
-      <c r="G21" s="17">
+      <c r="P21" s="17">
         <v>640</v>
       </c>
-      <c r="H21" s="17">
+      <c r="Q21" s="17">
         <v>857</v>
       </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
         <v>1200</v>
       </c>
-      <c r="K21" s="17">
+      <c r="T21" s="17">
         <v>1600</v>
       </c>
-      <c r="L21" s="17">
+      <c r="U21" s="17">
         <v>3600</v>
       </c>
-      <c r="M21" s="17">
-        <v>0</v>
-      </c>
-      <c r="N21" s="17">
+      <c r="V21" s="17">
+        <v>0</v>
+      </c>
+      <c r="W21" s="17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X21" s="17">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -1249,10 +1689,20 @@
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -1286,121 +1736,241 @@
       <c r="N23" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17">
+        <v>0</v>
+      </c>
+      <c r="T23" s="17">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
+        <v>0</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15">
+      <c r="E24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
         <v>250</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="O24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="15">
         <v>-49</v>
       </c>
-      <c r="K24" s="15">
+      <c r="T24" s="15">
         <v>-675</v>
       </c>
-      <c r="L24" s="15">
+      <c r="U24" s="15">
         <v>-754</v>
       </c>
-      <c r="M24" s="15">
+      <c r="V24" s="15">
         <v>-3926</v>
       </c>
-      <c r="N24" s="15">
+      <c r="W24" s="15">
         <v>-226</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="17">
+      <c r="E25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>-250</v>
+      </c>
+      <c r="N25" s="17">
         <v>-2016</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X25" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>12637</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>-39507</v>
+      </c>
+      <c r="K26" s="15">
+        <v>20026</v>
+      </c>
+      <c r="L26" s="15">
+        <v>15178</v>
+      </c>
+      <c r="M26" s="15">
+        <v>18856</v>
+      </c>
+      <c r="N26" s="15">
         <v>12270</v>
       </c>
-      <c r="F26" s="15">
+      <c r="O26" s="15">
         <v>16436</v>
       </c>
-      <c r="G26" s="15">
+      <c r="P26" s="15">
         <v>10162</v>
       </c>
-      <c r="H26" s="15">
+      <c r="Q26" s="15">
         <v>9499</v>
       </c>
-      <c r="I26" s="15">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
+      <c r="S26" s="15">
         <v>10452</v>
       </c>
-      <c r="K26" s="15">
+      <c r="T26" s="15">
         <v>17314</v>
       </c>
-      <c r="L26" s="15">
+      <c r="U26" s="15">
         <v>20215</v>
       </c>
-      <c r="M26" s="15">
+      <c r="V26" s="15">
         <v>11192</v>
       </c>
-      <c r="N26" s="15">
+      <c r="W26" s="15">
         <v>26108</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X26" s="15">
+        <v>12341</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1414,8 +1984,18 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1429,8 +2009,18 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1444,10 +2034,20 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1481,8 +2081,38 @@
       <c r="N30" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1496,8 +2126,18 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1511,10 +2151,20 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1528,242 +2178,432 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="9">
+      <c r="E34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="9">
+        <v>36672</v>
+      </c>
+      <c r="N34" s="9">
         <v>334544</v>
       </c>
-      <c r="F34" s="9">
+      <c r="O34" s="9">
         <v>537626</v>
       </c>
-      <c r="G34" s="9">
+      <c r="P34" s="9">
         <v>48977</v>
       </c>
-      <c r="H34" s="9">
+      <c r="Q34" s="9">
         <v>122339</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="9">
+      <c r="R34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S34" s="9">
         <v>532361</v>
       </c>
-      <c r="K34" s="9">
+      <c r="T34" s="9">
         <v>1701127</v>
       </c>
-      <c r="L34" s="9">
+      <c r="U34" s="9">
         <v>2103381</v>
       </c>
-      <c r="M34" s="9">
+      <c r="V34" s="9">
         <v>1650164</v>
       </c>
-      <c r="N34" s="9">
+      <c r="W34" s="9">
         <v>5298931</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X34" s="9">
+        <v>2297890</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13">
+      <c r="E35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="13">
+        <v>109203</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="13">
+        <v>269562</v>
+      </c>
+      <c r="K35" s="13">
+        <v>244878</v>
+      </c>
+      <c r="L35" s="13">
+        <v>183955</v>
+      </c>
+      <c r="M35" s="13">
+        <v>248816</v>
+      </c>
+      <c r="N35" s="13">
         <v>355570</v>
       </c>
-      <c r="F35" s="13">
+      <c r="O35" s="13">
         <v>266038</v>
       </c>
-      <c r="G35" s="13">
+      <c r="P35" s="13">
         <v>205686</v>
       </c>
-      <c r="H35" s="13">
+      <c r="Q35" s="13">
         <v>163385</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="13">
+      <c r="R35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35" s="13">
         <v>358955</v>
       </c>
-      <c r="K35" s="13">
+      <c r="T35" s="13">
         <v>665161</v>
       </c>
-      <c r="L35" s="13">
+      <c r="U35" s="13">
         <v>346866</v>
       </c>
-      <c r="M35" s="13">
+      <c r="V35" s="13">
         <v>963376</v>
       </c>
-      <c r="N35" s="13">
+      <c r="W35" s="13">
         <v>1292637</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X35" s="13">
+        <v>423818</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="9">
+      <c r="E36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="9">
+        <v>76262</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="9">
+        <v>180516</v>
+      </c>
+      <c r="K36" s="9">
+        <v>129175</v>
+      </c>
+      <c r="L36" s="9">
+        <v>186988</v>
+      </c>
+      <c r="M36" s="9">
+        <v>191819</v>
+      </c>
+      <c r="N36" s="9">
         <v>308219</v>
       </c>
-      <c r="F36" s="9">
+      <c r="O36" s="9">
         <v>144948</v>
       </c>
-      <c r="G36" s="9">
+      <c r="P36" s="9">
         <v>228510</v>
       </c>
-      <c r="H36" s="9">
+      <c r="Q36" s="9">
         <v>496696</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="R36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S36" s="9">
         <v>337198</v>
       </c>
-      <c r="K36" s="9">
+      <c r="T36" s="9">
         <v>249406</v>
       </c>
-      <c r="L36" s="9">
+      <c r="U36" s="9">
         <v>684454</v>
       </c>
-      <c r="M36" s="9">
+      <c r="V36" s="9">
         <v>825145</v>
       </c>
-      <c r="N36" s="9">
+      <c r="W36" s="9">
         <v>231637</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X36" s="9">
+        <v>358025</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13">
+      <c r="E37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="13">
+        <v>39012</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="13">
+        <v>24091</v>
+      </c>
+      <c r="K37" s="13">
+        <v>27472</v>
+      </c>
+      <c r="L37" s="13">
+        <v>26237</v>
+      </c>
+      <c r="M37" s="13">
+        <v>51125</v>
+      </c>
+      <c r="N37" s="13">
         <v>40591</v>
       </c>
-      <c r="F37" s="13">
+      <c r="O37" s="13">
         <v>64441</v>
       </c>
-      <c r="G37" s="13">
+      <c r="P37" s="13">
         <v>63583</v>
       </c>
-      <c r="H37" s="13">
+      <c r="Q37" s="13">
         <v>72676</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="13">
+      <c r="R37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" s="13">
         <v>40059</v>
       </c>
-      <c r="K37" s="13">
+      <c r="T37" s="13">
         <v>118788</v>
       </c>
-      <c r="L37" s="13">
+      <c r="U37" s="13">
         <v>193985</v>
       </c>
-      <c r="M37" s="13">
+      <c r="V37" s="13">
         <v>51897</v>
       </c>
-      <c r="N37" s="13">
+      <c r="W37" s="13">
         <v>18586</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X37" s="13">
+        <v>34063</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D38" s="9"/>
-      <c r="E38" s="9">
+      <c r="E38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1081</v>
+      </c>
+      <c r="N38" s="9">
         <v>-1081</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>224477</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>474169</v>
+      </c>
+      <c r="K39" s="15">
+        <v>401525</v>
+      </c>
+      <c r="L39" s="15">
+        <v>397180</v>
+      </c>
+      <c r="M39" s="15">
+        <v>529513</v>
+      </c>
+      <c r="N39" s="15">
         <v>1037843</v>
       </c>
-      <c r="F39" s="15">
+      <c r="O39" s="15">
         <v>1013053</v>
       </c>
-      <c r="G39" s="15">
+      <c r="P39" s="15">
         <v>546756</v>
       </c>
-      <c r="H39" s="15">
+      <c r="Q39" s="15">
         <v>855096</v>
       </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15">
+      <c r="R39" s="15">
+        <v>0</v>
+      </c>
+      <c r="S39" s="15">
         <v>1268573</v>
       </c>
-      <c r="K39" s="15">
+      <c r="T39" s="15">
         <v>2734482</v>
       </c>
-      <c r="L39" s="15">
+      <c r="U39" s="15">
         <v>3328686</v>
       </c>
-      <c r="M39" s="15">
+      <c r="V39" s="15">
         <v>3490582</v>
       </c>
-      <c r="N39" s="15">
+      <c r="W39" s="15">
         <v>6841791</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X39" s="15">
+        <v>3113796</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -1777,125 +2617,225 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
+        <v>28</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9">
         <v>25515</v>
       </c>
-      <c r="I41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="9">
+      <c r="R41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" s="9">
         <v>113549</v>
       </c>
-      <c r="K41" s="9">
+      <c r="T41" s="9">
         <v>165047</v>
       </c>
-      <c r="L41" s="9">
+      <c r="U41" s="9">
         <v>381811</v>
       </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
+      <c r="V41" s="9">
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
         <v>129926</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X41" s="9">
+        <v>103390</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="13">
+      <c r="E42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="13">
+        <v>0</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13">
         <v>58459</v>
       </c>
-      <c r="F42" s="13">
+      <c r="O42" s="13">
         <v>104761</v>
       </c>
-      <c r="G42" s="13">
+      <c r="P42" s="13">
         <v>253147</v>
       </c>
-      <c r="H42" s="13">
+      <c r="Q42" s="13">
         <v>242911</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="13">
-        <v>0</v>
-      </c>
-      <c r="K42" s="13">
-        <v>0</v>
-      </c>
-      <c r="L42" s="13">
-        <v>0</v>
-      </c>
-      <c r="M42" s="13">
-        <v>0</v>
-      </c>
-      <c r="N42" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S42" s="13">
+        <v>0</v>
+      </c>
+      <c r="T42" s="13">
+        <v>0</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0</v>
+      </c>
+      <c r="V42" s="13">
+        <v>0</v>
+      </c>
+      <c r="W42" s="13">
+        <v>0</v>
+      </c>
+      <c r="X42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <v>0</v>
+      </c>
+      <c r="K43" s="17">
+        <v>0</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
         <v>58459</v>
       </c>
-      <c r="F43" s="17">
+      <c r="O43" s="17">
         <v>104761</v>
       </c>
-      <c r="G43" s="17">
+      <c r="P43" s="17">
         <v>253147</v>
       </c>
-      <c r="H43" s="17">
+      <c r="Q43" s="17">
         <v>268426</v>
       </c>
-      <c r="I43" s="17">
-        <v>0</v>
-      </c>
-      <c r="J43" s="17">
+      <c r="R43" s="17">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
         <v>113549</v>
       </c>
-      <c r="K43" s="17">
+      <c r="T43" s="17">
         <v>165047</v>
       </c>
-      <c r="L43" s="17">
+      <c r="U43" s="17">
         <v>381811</v>
       </c>
-      <c r="M43" s="17">
-        <v>0</v>
-      </c>
-      <c r="N43" s="17">
+      <c r="V43" s="17">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
         <v>129926</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X43" s="17">
+        <v>103390</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -1909,10 +2849,20 @@
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -1946,123 +2896,243 @@
       <c r="N45" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="17">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>0</v>
+      </c>
+      <c r="R45" s="17">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17">
+        <v>0</v>
+      </c>
+      <c r="T45" s="17">
+        <v>0</v>
+      </c>
+      <c r="U45" s="17">
+        <v>0</v>
+      </c>
+      <c r="V45" s="17">
+        <v>0</v>
+      </c>
+      <c r="W45" s="17">
+        <v>0</v>
+      </c>
+      <c r="X45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="15">
+      <c r="E46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="15">
+        <v>0</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="15">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
+        <v>0</v>
+      </c>
+      <c r="M46" s="15">
+        <v>3613</v>
+      </c>
+      <c r="N46" s="15">
         <v>3474</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="15">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="15">
+      <c r="O46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46" s="15">
         <v>-1741</v>
       </c>
-      <c r="K46" s="15">
+      <c r="T46" s="15">
         <v>-209824</v>
       </c>
-      <c r="L46" s="15">
+      <c r="U46" s="15">
         <v>-188994</v>
       </c>
-      <c r="M46" s="15">
+      <c r="V46" s="15">
         <v>-1320824</v>
       </c>
-      <c r="N46" s="15">
+      <c r="W46" s="15">
         <v>-66861</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X46" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D47" s="17"/>
-      <c r="E47" s="17">
+      <c r="E47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="17">
+        <v>0</v>
+      </c>
+      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17">
+        <v>-3766</v>
+      </c>
+      <c r="N47" s="17">
         <v>-192756</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="U47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="V47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="W47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X47" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <v>224477</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15">
+        <v>474169</v>
+      </c>
+      <c r="K48" s="15">
+        <v>401525</v>
+      </c>
+      <c r="L48" s="15">
+        <v>397180</v>
+      </c>
+      <c r="M48" s="15">
+        <v>529360</v>
+      </c>
+      <c r="N48" s="15">
         <v>907020</v>
       </c>
-      <c r="F48" s="15">
+      <c r="O48" s="15">
         <v>1117814</v>
       </c>
-      <c r="G48" s="15">
+      <c r="P48" s="15">
         <v>799903</v>
       </c>
-      <c r="H48" s="15">
+      <c r="Q48" s="15">
         <v>1123522</v>
       </c>
-      <c r="I48" s="15">
-        <v>0</v>
-      </c>
-      <c r="J48" s="15">
+      <c r="R48" s="15">
+        <v>0</v>
+      </c>
+      <c r="S48" s="15">
         <v>1380381</v>
       </c>
-      <c r="K48" s="15">
+      <c r="T48" s="15">
         <v>2689705</v>
       </c>
-      <c r="L48" s="15">
+      <c r="U48" s="15">
         <v>3521503</v>
       </c>
-      <c r="M48" s="15">
+      <c r="V48" s="15">
         <v>2169758</v>
       </c>
-      <c r="N48" s="15">
+      <c r="W48" s="15">
         <v>6904856</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X48" s="15">
+        <v>3217186</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2076,8 +3146,18 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2091,8 +3171,18 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2106,10 +3196,20 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2143,8 +3243,38 @@
       <c r="N52" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X52" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2158,8 +3288,18 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2173,10 +3313,20 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2190,205 +3340,365 @@
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D56" s="9"/>
-      <c r="E56" s="9">
+      <c r="E56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" s="9">
+        <v>111465046</v>
+      </c>
+      <c r="N56" s="9">
         <v>251347859</v>
       </c>
-      <c r="F56" s="9">
+      <c r="O56" s="9">
         <v>117719728</v>
       </c>
-      <c r="G56" s="9">
+      <c r="P56" s="9">
         <v>120041667</v>
       </c>
-      <c r="H56" s="9">
+      <c r="Q56" s="9">
         <v>147931076</v>
       </c>
-      <c r="I56" s="9">
+      <c r="R56" s="9">
         <v>157402502</v>
       </c>
-      <c r="J56" s="9">
+      <c r="S56" s="9">
         <v>184144241</v>
       </c>
-      <c r="K56" s="9">
+      <c r="T56" s="9">
         <v>307173528</v>
       </c>
-      <c r="L56" s="9">
+      <c r="U56" s="9">
         <v>314265800</v>
       </c>
-      <c r="M56" s="9">
+      <c r="V56" s="9">
         <v>413367735</v>
       </c>
-      <c r="N56" s="9">
+      <c r="W56" s="9">
         <v>419053460</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X56" s="9">
+        <v>396735152</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D57" s="13"/>
-      <c r="E57" s="13">
+      <c r="E57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="13">
+        <v>16852315</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="13">
+        <v>12066879</v>
+      </c>
+      <c r="K57" s="13">
+        <v>16178515</v>
+      </c>
+      <c r="L57" s="13">
+        <v>17653658</v>
+      </c>
+      <c r="M57" s="13">
+        <v>24740579</v>
+      </c>
+      <c r="N57" s="13">
         <v>31878250</v>
       </c>
-      <c r="F57" s="13">
+      <c r="O57" s="13">
         <v>35733781</v>
       </c>
-      <c r="G57" s="13">
+      <c r="P57" s="13">
         <v>38517978</v>
       </c>
-      <c r="H57" s="13">
+      <c r="Q57" s="13">
         <v>47112168</v>
       </c>
-      <c r="I57" s="13">
+      <c r="R57" s="13">
         <v>60008441</v>
       </c>
-      <c r="J57" s="13">
+      <c r="S57" s="13">
         <v>79520381</v>
       </c>
-      <c r="K57" s="13">
+      <c r="T57" s="13">
         <v>93526575</v>
       </c>
-      <c r="L57" s="13">
+      <c r="U57" s="13">
         <v>97791373</v>
       </c>
-      <c r="M57" s="13">
+      <c r="V57" s="13">
         <v>114483185</v>
       </c>
-      <c r="N57" s="13">
+      <c r="W57" s="13">
         <v>110265035</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X57" s="13">
+        <v>147005897</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D58" s="9"/>
-      <c r="E58" s="9">
+      <c r="E58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="9">
+        <v>105188966</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="9">
+        <v>69940333</v>
+      </c>
+      <c r="K58" s="9">
+        <v>132623203</v>
+      </c>
+      <c r="L58" s="9">
+        <v>201278794</v>
+      </c>
+      <c r="M58" s="9">
+        <v>238877958</v>
+      </c>
+      <c r="N58" s="9">
         <v>313549339</v>
       </c>
-      <c r="F58" s="9">
+      <c r="O58" s="9">
         <v>350963680</v>
       </c>
-      <c r="G58" s="9">
+      <c r="P58" s="9">
         <v>452495050</v>
       </c>
-      <c r="H58" s="9">
+      <c r="Q58" s="9">
         <v>726163743</v>
       </c>
-      <c r="I58" s="9">
+      <c r="R58" s="9">
         <v>707255944</v>
       </c>
-      <c r="J58" s="9">
+      <c r="S58" s="9">
         <v>566719328</v>
       </c>
-      <c r="K58" s="9">
+      <c r="T58" s="9">
         <v>454291439</v>
       </c>
-      <c r="L58" s="9">
+      <c r="U58" s="9">
         <v>425390926</v>
       </c>
-      <c r="M58" s="9">
+      <c r="V58" s="9">
         <v>658010367</v>
       </c>
-      <c r="N58" s="9">
+      <c r="W58" s="9">
         <v>520532584</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X58" s="9">
+        <v>393002195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D59" s="13"/>
-      <c r="E59" s="13">
+      <c r="E59" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="13">
+        <v>7181885</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J59" s="13">
+        <v>1651539</v>
+      </c>
+      <c r="K59" s="13">
+        <v>7015322</v>
+      </c>
+      <c r="L59" s="13">
+        <v>6870385</v>
+      </c>
+      <c r="M59" s="13">
+        <v>9584739</v>
+      </c>
+      <c r="N59" s="13">
         <v>13754998</v>
       </c>
-      <c r="F59" s="13">
+      <c r="O59" s="13">
         <v>17411781</v>
       </c>
-      <c r="G59" s="13">
+      <c r="P59" s="13">
         <v>19450291</v>
       </c>
-      <c r="H59" s="13">
+      <c r="Q59" s="13">
         <v>19840022</v>
       </c>
-      <c r="I59" s="13">
+      <c r="R59" s="13">
         <v>23670441</v>
       </c>
-      <c r="J59" s="13">
+      <c r="S59" s="13">
         <v>30790930</v>
       </c>
-      <c r="K59" s="13">
+      <c r="T59" s="13">
         <v>37237618</v>
       </c>
-      <c r="L59" s="13">
+      <c r="U59" s="13">
         <v>35142210</v>
       </c>
-      <c r="M59" s="13">
+      <c r="V59" s="13">
         <v>35619080</v>
       </c>
-      <c r="N59" s="13">
+      <c r="W59" s="13">
         <v>35673704</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X59" s="13">
+        <v>21905466</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D60" s="9"/>
-      <c r="E60" s="9">
+      <c r="E60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" s="9">
         <v>418506</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N60" s="9">
+        <v>418506</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W60" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X60" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2402,86 +3712,156 @@
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="9">
+        <v>28</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q62" s="9">
         <v>51030000</v>
       </c>
-      <c r="I62" s="9">
+      <c r="R62" s="9">
         <v>59704986</v>
       </c>
-      <c r="J62" s="9">
+      <c r="S62" s="9">
         <v>94624167</v>
       </c>
-      <c r="K62" s="9">
+      <c r="T62" s="9">
         <v>103154375</v>
       </c>
-      <c r="L62" s="9">
+      <c r="U62" s="9">
         <v>106058611</v>
       </c>
-      <c r="M62" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N62" s="9">
+      <c r="V62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W62" s="9">
         <v>129926000</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X62" s="9">
+        <v>86158333</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D63" s="13"/>
-      <c r="E63" s="13">
+      <c r="E63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="13">
+        <v>129525000</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N63" s="13">
         <v>292295000</v>
       </c>
-      <c r="F63" s="13">
+      <c r="O63" s="13">
         <v>337938710</v>
       </c>
-      <c r="G63" s="13">
+      <c r="P63" s="13">
         <v>395542188</v>
       </c>
-      <c r="H63" s="13">
+      <c r="Q63" s="13">
         <v>680422969</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="X63" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2495,8 +3875,18 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2510,8 +3900,18 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2525,10 +3925,20 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2562,8 +3972,38 @@
       <c r="N67" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T67" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X67" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2577,8 +4017,18 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2592,10 +4042,20 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -2609,242 +4069,432 @@
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9">
+      <c r="E71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" s="9">
+        <v>-27295</v>
+      </c>
+      <c r="N71" s="9">
         <v>-109778</v>
       </c>
-      <c r="F71" s="9">
+      <c r="O71" s="9">
         <v>-443655</v>
       </c>
-      <c r="G71" s="9">
+      <c r="P71" s="9">
         <v>81314</v>
       </c>
-      <c r="H71" s="9">
+      <c r="Q71" s="9">
         <v>-113731</v>
       </c>
-      <c r="I71" s="9">
+      <c r="R71" s="9">
         <v>-1186642</v>
       </c>
-      <c r="J71" s="9">
+      <c r="S71" s="9">
         <v>-363199</v>
       </c>
-      <c r="K71" s="9">
+      <c r="T71" s="9">
         <v>-812705</v>
       </c>
-      <c r="L71" s="9">
+      <c r="U71" s="9">
         <v>-1627717</v>
       </c>
-      <c r="M71" s="9">
+      <c r="V71" s="9">
         <v>616505</v>
       </c>
-      <c r="N71" s="9">
+      <c r="W71" s="9">
         <v>-3613460</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X71" s="9">
+        <v>-946674</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D72" s="13"/>
-      <c r="E72" s="13">
+      <c r="E72" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="13">
+        <v>-176596</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="13">
+        <v>-437312</v>
+      </c>
+      <c r="K72" s="13">
+        <v>-181420</v>
+      </c>
+      <c r="L72" s="13">
+        <v>-152771</v>
+      </c>
+      <c r="M72" s="13">
+        <v>-170295</v>
+      </c>
+      <c r="N72" s="13">
         <v>-261428</v>
       </c>
-      <c r="F72" s="13">
+      <c r="O72" s="13">
         <v>-215910</v>
       </c>
-      <c r="G72" s="13">
+      <c r="P72" s="13">
         <v>-210865</v>
       </c>
-      <c r="H72" s="13">
+      <c r="Q72" s="13">
         <v>-23299</v>
       </c>
-      <c r="I72" s="13">
+      <c r="R72" s="13">
         <v>-578952</v>
       </c>
-      <c r="J72" s="13">
+      <c r="S72" s="13">
         <v>-279425</v>
       </c>
-      <c r="K72" s="13">
+      <c r="T72" s="13">
         <v>-512371</v>
       </c>
-      <c r="L72" s="13">
+      <c r="U72" s="13">
         <v>-242244</v>
       </c>
-      <c r="M72" s="13">
+      <c r="V72" s="13">
         <v>-970940</v>
       </c>
-      <c r="N72" s="13">
+      <c r="W72" s="13">
         <v>-1112596</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X72" s="13">
+        <v>-128869</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9">
+      <c r="E73" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" s="9">
+        <v>-118922</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J73" s="9">
+        <v>-380664</v>
+      </c>
+      <c r="K73" s="9">
+        <v>-114965</v>
+      </c>
+      <c r="L73" s="9">
+        <v>-151211</v>
+      </c>
+      <c r="M73" s="9">
+        <v>-111512</v>
+      </c>
+      <c r="N73" s="9">
         <v>-299903</v>
       </c>
-      <c r="F73" s="9">
+      <c r="O73" s="9">
         <v>-117636</v>
       </c>
-      <c r="G73" s="9">
+      <c r="P73" s="9">
         <v>-162333</v>
       </c>
-      <c r="H73" s="9">
+      <c r="Q73" s="9">
         <v>-364035</v>
       </c>
-      <c r="I73" s="9">
+      <c r="R73" s="9">
         <v>-406079</v>
       </c>
-      <c r="J73" s="9">
+      <c r="S73" s="9">
         <v>-277060</v>
       </c>
-      <c r="K73" s="9">
+      <c r="T73" s="9">
         <v>-393850</v>
       </c>
-      <c r="L73" s="9">
+      <c r="U73" s="9">
         <v>-630703</v>
       </c>
-      <c r="M73" s="9">
+      <c r="V73" s="9">
         <v>-918169</v>
       </c>
-      <c r="N73" s="9">
+      <c r="W73" s="9">
         <v>-224915</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X73" s="9">
+        <v>-496838</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D74" s="13"/>
-      <c r="E74" s="13">
+      <c r="E74" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="13">
+        <v>-47105</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J74" s="13">
+        <v>-78023</v>
+      </c>
+      <c r="K74" s="13">
+        <v>-16689</v>
+      </c>
+      <c r="L74" s="13">
+        <v>-16139</v>
+      </c>
+      <c r="M74" s="13">
+        <v>-45085</v>
+      </c>
+      <c r="N74" s="13">
         <v>-41975</v>
       </c>
-      <c r="F74" s="13">
+      <c r="O74" s="13">
         <v>-52298</v>
       </c>
-      <c r="G74" s="13">
+      <c r="P74" s="13">
         <v>-31787</v>
       </c>
-      <c r="H74" s="13">
+      <c r="Q74" s="13">
         <v>-33122</v>
       </c>
-      <c r="I74" s="13">
+      <c r="R74" s="13">
         <v>-92614</v>
       </c>
-      <c r="J74" s="13">
+      <c r="S74" s="13">
         <v>-32840</v>
       </c>
-      <c r="K74" s="13">
+      <c r="T74" s="13">
         <v>-56550</v>
       </c>
-      <c r="L74" s="13">
+      <c r="U74" s="13">
         <v>-210944</v>
       </c>
-      <c r="M74" s="13">
+      <c r="V74" s="13">
         <v>44160</v>
       </c>
-      <c r="N74" s="13">
+      <c r="W74" s="13">
         <v>-15229</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X74" s="13">
+        <v>-6503</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9">
+      <c r="E75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M75" s="9">
+        <v>-805</v>
+      </c>
+      <c r="N75" s="9">
         <v>805</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="9">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N75" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P75" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W75" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X75" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
+        <v>0</v>
+      </c>
+      <c r="F76" s="15">
+        <v>0</v>
+      </c>
+      <c r="G76" s="15">
+        <v>0</v>
+      </c>
+      <c r="H76" s="15">
+        <v>-342623</v>
+      </c>
+      <c r="I76" s="15">
+        <v>0</v>
+      </c>
+      <c r="J76" s="15">
+        <v>-895999</v>
+      </c>
+      <c r="K76" s="15">
+        <v>-313074</v>
+      </c>
+      <c r="L76" s="15">
+        <v>-320121</v>
+      </c>
+      <c r="M76" s="15">
+        <v>-354992</v>
+      </c>
+      <c r="N76" s="15">
         <v>-712279</v>
       </c>
-      <c r="F76" s="15">
+      <c r="O76" s="15">
         <v>-829499</v>
       </c>
-      <c r="G76" s="15">
+      <c r="P76" s="15">
         <v>-323671</v>
       </c>
-      <c r="H76" s="15">
+      <c r="Q76" s="15">
         <v>-534187</v>
       </c>
-      <c r="I76" s="15">
+      <c r="R76" s="15">
         <v>-2264287</v>
       </c>
-      <c r="J76" s="15">
+      <c r="S76" s="15">
         <v>-952524</v>
       </c>
-      <c r="K76" s="15">
+      <c r="T76" s="15">
         <v>-1775476</v>
       </c>
-      <c r="L76" s="15">
+      <c r="U76" s="15">
         <v>-2711608</v>
       </c>
-      <c r="M76" s="15">
+      <c r="V76" s="15">
         <v>-1228444</v>
       </c>
-      <c r="N76" s="15">
+      <c r="W76" s="15">
         <v>-4966200</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X76" s="15">
+        <v>-1578884</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2858,125 +4508,225 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="9">
-        <v>0</v>
-      </c>
-      <c r="H78" s="9">
+        <v>28</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P78" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="9">
         <v>-13846</v>
       </c>
-      <c r="I78" s="9">
+      <c r="R78" s="9">
         <v>-64249</v>
       </c>
-      <c r="J78" s="9">
+      <c r="S78" s="9">
         <v>-88391</v>
       </c>
-      <c r="K78" s="9">
+      <c r="T78" s="9">
         <v>-110384</v>
       </c>
-      <c r="L78" s="9">
+      <c r="U78" s="9">
         <v>-237297</v>
       </c>
-      <c r="M78" s="9">
+      <c r="V78" s="9">
         <v>-77505</v>
       </c>
-      <c r="N78" s="9">
+      <c r="W78" s="9">
         <v>-94990</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X78" s="9">
+        <v>-92806</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D79" s="13"/>
-      <c r="E79" s="13">
+      <c r="E79" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="13">
+        <v>0</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0</v>
+      </c>
+      <c r="L79" s="13">
+        <v>-16783</v>
+      </c>
+      <c r="M79" s="13">
+        <v>4814</v>
+      </c>
+      <c r="N79" s="13">
         <v>-46808</v>
       </c>
-      <c r="F79" s="13">
+      <c r="O79" s="13">
         <v>-85022</v>
       </c>
-      <c r="G79" s="13">
+      <c r="P79" s="13">
         <v>-204707</v>
       </c>
-      <c r="H79" s="13">
+      <c r="Q79" s="13">
         <v>-234314</v>
       </c>
-      <c r="I79" s="13">
+      <c r="R79" s="13">
         <v>-68300</v>
       </c>
-      <c r="J79" s="13">
-        <v>0</v>
-      </c>
-      <c r="K79" s="13">
-        <v>0</v>
-      </c>
-      <c r="L79" s="13">
-        <v>0</v>
-      </c>
-      <c r="M79" s="13">
-        <v>0</v>
-      </c>
-      <c r="N79" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="S79" s="13">
+        <v>0</v>
+      </c>
+      <c r="T79" s="13">
+        <v>0</v>
+      </c>
+      <c r="U79" s="13">
+        <v>0</v>
+      </c>
+      <c r="V79" s="13">
+        <v>0</v>
+      </c>
+      <c r="W79" s="13">
+        <v>0</v>
+      </c>
+      <c r="X79" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17">
+        <v>0</v>
+      </c>
+      <c r="F80" s="17">
+        <v>0</v>
+      </c>
+      <c r="G80" s="17">
+        <v>0</v>
+      </c>
+      <c r="H80" s="17">
+        <v>0</v>
+      </c>
+      <c r="I80" s="17">
+        <v>0</v>
+      </c>
+      <c r="J80" s="17">
+        <v>0</v>
+      </c>
+      <c r="K80" s="17">
+        <v>0</v>
+      </c>
+      <c r="L80" s="17">
+        <v>-16783</v>
+      </c>
+      <c r="M80" s="17">
+        <v>4814</v>
+      </c>
+      <c r="N80" s="17">
         <v>-46808</v>
       </c>
-      <c r="F80" s="17">
+      <c r="O80" s="17">
         <v>-85022</v>
       </c>
-      <c r="G80" s="17">
+      <c r="P80" s="17">
         <v>-204707</v>
       </c>
-      <c r="H80" s="17">
+      <c r="Q80" s="17">
         <v>-248160</v>
       </c>
-      <c r="I80" s="17">
+      <c r="R80" s="17">
         <v>-132549</v>
       </c>
-      <c r="J80" s="17">
+      <c r="S80" s="17">
         <v>-88391</v>
       </c>
-      <c r="K80" s="17">
+      <c r="T80" s="17">
         <v>-110384</v>
       </c>
-      <c r="L80" s="17">
+      <c r="U80" s="17">
         <v>-237297</v>
       </c>
-      <c r="M80" s="17">
+      <c r="V80" s="17">
         <v>-77505</v>
       </c>
-      <c r="N80" s="17">
+      <c r="W80" s="17">
         <v>-94990</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X80" s="17">
+        <v>-92806</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B81" s="18" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
@@ -2990,10 +4740,20 @@
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
       <c r="N81" s="19"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -3027,29 +4787,59 @@
       <c r="N82" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O82" s="17">
+        <v>0</v>
+      </c>
+      <c r="P82" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="17">
+        <v>0</v>
+      </c>
+      <c r="R82" s="17">
+        <v>0</v>
+      </c>
+      <c r="S82" s="17">
+        <v>0</v>
+      </c>
+      <c r="T82" s="17">
+        <v>0</v>
+      </c>
+      <c r="U82" s="17">
+        <v>0</v>
+      </c>
+      <c r="V82" s="17">
+        <v>0</v>
+      </c>
+      <c r="W82" s="17">
+        <v>0</v>
+      </c>
+      <c r="X82" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D83" s="15"/>
-      <c r="E83" s="15">
-        <v>0</v>
+      <c r="E83" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="15">
-        <v>0</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" s="15">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="15">
+        <v>0</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="J83" s="15">
         <v>0</v>
@@ -3066,84 +4856,174 @@
       <c r="N83" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O83" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R83" s="15">
+        <v>0</v>
+      </c>
+      <c r="S83" s="15">
+        <v>0</v>
+      </c>
+      <c r="T83" s="15">
+        <v>0</v>
+      </c>
+      <c r="U83" s="15">
+        <v>0</v>
+      </c>
+      <c r="V83" s="15">
+        <v>0</v>
+      </c>
+      <c r="W83" s="15">
+        <v>0</v>
+      </c>
+      <c r="X83" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D84" s="17"/>
-      <c r="E84" s="17">
-        <v>0</v>
+      <c r="E84" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="H84" s="17">
+        <v>0</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N84" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="J84" s="17">
+        <v>0</v>
+      </c>
+      <c r="K84" s="17">
+        <v>0</v>
+      </c>
+      <c r="L84" s="17">
+        <v>0</v>
+      </c>
+      <c r="M84" s="17">
+        <v>0</v>
+      </c>
+      <c r="N84" s="17">
+        <v>0</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="U84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="V84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="W84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="X84" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15">
+        <v>0</v>
+      </c>
+      <c r="F85" s="15">
+        <v>0</v>
+      </c>
+      <c r="G85" s="15">
+        <v>0</v>
+      </c>
+      <c r="H85" s="15">
+        <v>-342623</v>
+      </c>
+      <c r="I85" s="15">
+        <v>0</v>
+      </c>
+      <c r="J85" s="15">
+        <v>-895999</v>
+      </c>
+      <c r="K85" s="15">
+        <v>-313074</v>
+      </c>
+      <c r="L85" s="15">
+        <v>-336904</v>
+      </c>
+      <c r="M85" s="15">
+        <v>-350178</v>
+      </c>
+      <c r="N85" s="15">
         <v>-759087</v>
       </c>
-      <c r="F85" s="15">
+      <c r="O85" s="15">
         <v>-914521</v>
       </c>
-      <c r="G85" s="15">
+      <c r="P85" s="15">
         <v>-528378</v>
       </c>
-      <c r="H85" s="15">
+      <c r="Q85" s="15">
         <v>-782347</v>
       </c>
-      <c r="I85" s="15">
+      <c r="R85" s="15">
         <v>-2396836</v>
       </c>
-      <c r="J85" s="15">
+      <c r="S85" s="15">
         <v>-1040915</v>
       </c>
-      <c r="K85" s="15">
+      <c r="T85" s="15">
         <v>-1885860</v>
       </c>
-      <c r="L85" s="15">
+      <c r="U85" s="15">
         <v>-2948905</v>
       </c>
-      <c r="M85" s="15">
+      <c r="V85" s="15">
         <v>-1305949</v>
       </c>
-      <c r="N85" s="15">
+      <c r="W85" s="15">
         <v>-5061190</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X85" s="15">
+        <v>-1671690</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3157,8 +5037,18 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3172,8 +5062,18 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3187,10 +5087,20 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3224,8 +5134,38 @@
       <c r="N89" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O89" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X89" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3239,8 +5179,18 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -3254,10 +5204,20 @@
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3271,242 +5231,432 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9">
+      <c r="E93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M93" s="9">
+        <v>9377</v>
+      </c>
+      <c r="N93" s="9">
         <v>224766</v>
       </c>
-      <c r="F93" s="9">
+      <c r="O93" s="9">
         <v>93971</v>
       </c>
-      <c r="G93" s="9">
+      <c r="P93" s="9">
         <v>130291</v>
       </c>
-      <c r="H93" s="9">
+      <c r="Q93" s="9">
         <v>8608</v>
       </c>
-      <c r="I93" s="9">
+      <c r="R93" s="9">
         <v>637653</v>
       </c>
-      <c r="J93" s="9">
+      <c r="S93" s="9">
         <v>169162</v>
       </c>
-      <c r="K93" s="9">
+      <c r="T93" s="9">
         <v>888422</v>
       </c>
-      <c r="L93" s="9">
+      <c r="U93" s="9">
         <v>475664</v>
       </c>
-      <c r="M93" s="9">
+      <c r="V93" s="9">
         <v>2266669</v>
       </c>
-      <c r="N93" s="9">
+      <c r="W93" s="9">
         <v>1685471</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X93" s="9">
+        <v>1351216</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D94" s="13"/>
-      <c r="E94" s="13">
+      <c r="E94" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" s="13">
+        <v>103404</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J94" s="13">
+        <v>201192</v>
+      </c>
+      <c r="K94" s="13">
+        <v>63458</v>
+      </c>
+      <c r="L94" s="13">
+        <v>31339</v>
+      </c>
+      <c r="M94" s="13">
+        <v>81998</v>
+      </c>
+      <c r="N94" s="13">
         <v>94142</v>
       </c>
-      <c r="F94" s="13">
+      <c r="O94" s="13">
         <v>50128</v>
       </c>
-      <c r="G94" s="13">
+      <c r="P94" s="13">
         <v>-5179</v>
       </c>
-      <c r="H94" s="13">
+      <c r="Q94" s="13">
         <v>140086</v>
       </c>
-      <c r="I94" s="13">
+      <c r="R94" s="13">
         <v>-131049</v>
       </c>
-      <c r="J94" s="13">
+      <c r="S94" s="13">
         <v>79530</v>
       </c>
-      <c r="K94" s="13">
+      <c r="T94" s="13">
         <v>152790</v>
       </c>
-      <c r="L94" s="13">
+      <c r="U94" s="13">
         <v>104622</v>
       </c>
-      <c r="M94" s="13">
+      <c r="V94" s="13">
         <v>-7564</v>
       </c>
-      <c r="N94" s="13">
+      <c r="W94" s="13">
         <v>180041</v>
       </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X94" s="13">
+        <v>294949</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9">
+      <c r="E95" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" s="9">
+        <v>5122</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="9">
+        <v>46720</v>
+      </c>
+      <c r="K95" s="9">
+        <v>14210</v>
+      </c>
+      <c r="L95" s="9">
+        <v>35777</v>
+      </c>
+      <c r="M95" s="9">
+        <v>80599</v>
+      </c>
+      <c r="N95" s="9">
         <v>8316</v>
       </c>
-      <c r="F95" s="9">
+      <c r="O95" s="9">
         <v>27312</v>
       </c>
-      <c r="G95" s="9">
+      <c r="P95" s="9">
         <v>66177</v>
       </c>
-      <c r="H95" s="9">
+      <c r="Q95" s="9">
         <v>132661</v>
       </c>
-      <c r="I95" s="9">
+      <c r="R95" s="9">
         <v>99609</v>
       </c>
-      <c r="J95" s="9">
+      <c r="S95" s="9">
         <v>60138</v>
       </c>
-      <c r="K95" s="9">
+      <c r="T95" s="9">
         <v>-144444</v>
       </c>
-      <c r="L95" s="9">
+      <c r="U95" s="9">
         <v>53751</v>
       </c>
-      <c r="M95" s="9">
+      <c r="V95" s="9">
         <v>-93024</v>
       </c>
-      <c r="N95" s="9">
+      <c r="W95" s="9">
         <v>6722</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X95" s="9">
+        <v>-138813</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13">
+      <c r="E96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="13">
+        <v>27148</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J96" s="13">
+        <v>50411</v>
+      </c>
+      <c r="K96" s="13">
+        <v>10783</v>
+      </c>
+      <c r="L96" s="13">
+        <v>10099</v>
+      </c>
+      <c r="M96" s="13">
+        <v>6175</v>
+      </c>
+      <c r="N96" s="13">
         <v>-1384</v>
       </c>
-      <c r="F96" s="13">
+      <c r="O96" s="13">
         <v>12143</v>
       </c>
-      <c r="G96" s="13">
+      <c r="P96" s="13">
         <v>31796</v>
       </c>
-      <c r="H96" s="13">
+      <c r="Q96" s="13">
         <v>39552</v>
       </c>
-      <c r="I96" s="13">
+      <c r="R96" s="13">
         <v>-13176</v>
       </c>
-      <c r="J96" s="13">
+      <c r="S96" s="13">
         <v>7219</v>
       </c>
-      <c r="K96" s="13">
+      <c r="T96" s="13">
         <v>62238</v>
       </c>
-      <c r="L96" s="13">
+      <c r="U96" s="13">
         <v>-16959</v>
       </c>
-      <c r="M96" s="13">
+      <c r="V96" s="13">
         <v>96057</v>
       </c>
-      <c r="N96" s="13">
+      <c r="W96" s="13">
         <v>3357</v>
       </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X96" s="13">
+        <v>27560</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9">
+      <c r="E97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M97" s="9">
+        <v>276</v>
+      </c>
+      <c r="N97" s="9">
         <v>-276</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="9">
-        <v>0</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N97" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X97" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
+        <v>0</v>
+      </c>
+      <c r="F98" s="15">
+        <v>0</v>
+      </c>
+      <c r="G98" s="15">
+        <v>0</v>
+      </c>
+      <c r="H98" s="15">
+        <v>135674</v>
+      </c>
+      <c r="I98" s="15">
+        <v>0</v>
+      </c>
+      <c r="J98" s="15">
+        <v>298323</v>
+      </c>
+      <c r="K98" s="15">
+        <v>88451</v>
+      </c>
+      <c r="L98" s="15">
+        <v>77215</v>
+      </c>
+      <c r="M98" s="15">
+        <v>178425</v>
+      </c>
+      <c r="N98" s="15">
         <v>325564</v>
       </c>
-      <c r="F98" s="15">
+      <c r="O98" s="15">
         <v>183554</v>
       </c>
-      <c r="G98" s="15">
+      <c r="P98" s="15">
         <v>223085</v>
       </c>
-      <c r="H98" s="15">
+      <c r="Q98" s="15">
         <v>320907</v>
       </c>
-      <c r="I98" s="15">
+      <c r="R98" s="15">
         <v>593037</v>
       </c>
-      <c r="J98" s="15">
+      <c r="S98" s="15">
         <v>316049</v>
       </c>
-      <c r="K98" s="15">
+      <c r="T98" s="15">
         <v>959006</v>
       </c>
-      <c r="L98" s="15">
+      <c r="U98" s="15">
         <v>617078</v>
       </c>
-      <c r="M98" s="15">
+      <c r="V98" s="15">
         <v>2262138</v>
       </c>
-      <c r="N98" s="15">
+      <c r="W98" s="15">
         <v>1875591</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X98" s="15">
+        <v>1534912</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -3520,125 +5670,225 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" s="11"/>
+      <c r="R99" s="11"/>
+      <c r="S99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="11"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="9">
-        <v>0</v>
-      </c>
-      <c r="H100" s="9">
+        <v>28</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P100" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="9">
         <v>11669</v>
       </c>
-      <c r="I100" s="9">
+      <c r="R100" s="9">
         <v>21965</v>
       </c>
-      <c r="J100" s="9">
+      <c r="S100" s="9">
         <v>25158</v>
       </c>
-      <c r="K100" s="9">
+      <c r="T100" s="9">
         <v>54663</v>
       </c>
-      <c r="L100" s="9">
+      <c r="U100" s="9">
         <v>144514</v>
       </c>
-      <c r="M100" s="9">
+      <c r="V100" s="9">
         <v>-77505</v>
       </c>
-      <c r="N100" s="9">
+      <c r="W100" s="9">
         <v>34936</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X100" s="9">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D101" s="13"/>
-      <c r="E101" s="13">
+      <c r="E101" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" s="13">
+        <v>0</v>
+      </c>
+      <c r="K101" s="13">
+        <v>0</v>
+      </c>
+      <c r="L101" s="13">
+        <v>-1240</v>
+      </c>
+      <c r="M101" s="13">
+        <v>4814</v>
+      </c>
+      <c r="N101" s="13">
         <v>11651</v>
       </c>
-      <c r="F101" s="13">
+      <c r="O101" s="13">
         <v>19739</v>
       </c>
-      <c r="G101" s="13">
+      <c r="P101" s="13">
         <v>48440</v>
       </c>
-      <c r="H101" s="13">
+      <c r="Q101" s="13">
         <v>8597</v>
       </c>
-      <c r="I101" s="13">
+      <c r="R101" s="13">
         <v>-68299</v>
       </c>
-      <c r="J101" s="13">
-        <v>0</v>
-      </c>
-      <c r="K101" s="13">
-        <v>0</v>
-      </c>
-      <c r="L101" s="13">
-        <v>0</v>
-      </c>
-      <c r="M101" s="13">
-        <v>0</v>
-      </c>
-      <c r="N101" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="S101" s="13">
+        <v>0</v>
+      </c>
+      <c r="T101" s="13">
+        <v>0</v>
+      </c>
+      <c r="U101" s="13">
+        <v>0</v>
+      </c>
+      <c r="V101" s="13">
+        <v>0</v>
+      </c>
+      <c r="W101" s="13">
+        <v>0</v>
+      </c>
+      <c r="X101" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17">
+        <v>0</v>
+      </c>
+      <c r="F102" s="17">
+        <v>0</v>
+      </c>
+      <c r="G102" s="17">
+        <v>0</v>
+      </c>
+      <c r="H102" s="17">
+        <v>0</v>
+      </c>
+      <c r="I102" s="17">
+        <v>0</v>
+      </c>
+      <c r="J102" s="17">
+        <v>0</v>
+      </c>
+      <c r="K102" s="17">
+        <v>0</v>
+      </c>
+      <c r="L102" s="17">
+        <v>-1240</v>
+      </c>
+      <c r="M102" s="17">
+        <v>4814</v>
+      </c>
+      <c r="N102" s="17">
         <v>11651</v>
       </c>
-      <c r="F102" s="17">
+      <c r="O102" s="17">
         <v>19739</v>
       </c>
-      <c r="G102" s="17">
+      <c r="P102" s="17">
         <v>48440</v>
       </c>
-      <c r="H102" s="17">
+      <c r="Q102" s="17">
         <v>20266</v>
       </c>
-      <c r="I102" s="17">
+      <c r="R102" s="17">
         <v>-46334</v>
       </c>
-      <c r="J102" s="17">
+      <c r="S102" s="17">
         <v>25158</v>
       </c>
-      <c r="K102" s="17">
+      <c r="T102" s="17">
         <v>54663</v>
       </c>
-      <c r="L102" s="17">
+      <c r="U102" s="17">
         <v>144514</v>
       </c>
-      <c r="M102" s="17">
+      <c r="V102" s="17">
         <v>-77505</v>
       </c>
-      <c r="N102" s="17">
+      <c r="W102" s="17">
         <v>34936</v>
       </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="X102" s="17">
+        <v>10584</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B103" s="18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
@@ -3652,10 +5902,20 @@
       <c r="L103" s="19"/>
       <c r="M103" s="19"/>
       <c r="N103" s="19"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="19"/>
+      <c r="W103" s="19"/>
+      <c r="X103" s="19"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B104" s="16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -3689,120 +5949,240 @@
       <c r="N104" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O104" s="17">
+        <v>0</v>
+      </c>
+      <c r="P104" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="17">
+        <v>0</v>
+      </c>
+      <c r="R104" s="17">
+        <v>0</v>
+      </c>
+      <c r="S104" s="17">
+        <v>0</v>
+      </c>
+      <c r="T104" s="17">
+        <v>0</v>
+      </c>
+      <c r="U104" s="17">
+        <v>0</v>
+      </c>
+      <c r="V104" s="17">
+        <v>0</v>
+      </c>
+      <c r="W104" s="17">
+        <v>0</v>
+      </c>
+      <c r="X104" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D105" s="13"/>
-      <c r="E105" s="13">
+      <c r="E105" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" s="13">
+        <v>0</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" s="13">
+        <v>0</v>
+      </c>
+      <c r="K105" s="13">
+        <v>0</v>
+      </c>
+      <c r="L105" s="13">
+        <v>0</v>
+      </c>
+      <c r="M105" s="13">
+        <v>-291</v>
+      </c>
+      <c r="N105" s="13">
         <v>-1</v>
       </c>
-      <c r="F105" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="13">
-        <v>0</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I105" s="13">
+      <c r="O105" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P105" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R105" s="13">
         <v>-341417</v>
       </c>
-      <c r="J105" s="13">
+      <c r="S105" s="13">
         <v>-1741</v>
       </c>
-      <c r="K105" s="13">
+      <c r="T105" s="13">
         <v>-209824</v>
       </c>
-      <c r="L105" s="13">
+      <c r="U105" s="13">
         <v>-188994</v>
       </c>
-      <c r="M105" s="13">
+      <c r="V105" s="13">
         <v>400559</v>
       </c>
-      <c r="N105" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W105" s="13">
+        <v>0</v>
+      </c>
+      <c r="X105" s="13">
+        <v>-66861</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D106" s="9"/>
-      <c r="E106" s="9">
+      <c r="E106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="9">
+        <v>0</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" s="9">
+        <v>0</v>
+      </c>
+      <c r="K106" s="9">
+        <v>0</v>
+      </c>
+      <c r="L106" s="9">
+        <v>0</v>
+      </c>
+      <c r="M106" s="9">
+        <v>-3766</v>
+      </c>
+      <c r="N106" s="9">
         <v>-192756</v>
       </c>
-      <c r="F106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N106" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="V106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X106" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>0</v>
+      </c>
+      <c r="F107" s="15">
+        <v>0</v>
+      </c>
+      <c r="G107" s="15">
+        <v>0</v>
+      </c>
+      <c r="H107" s="15">
+        <v>135674</v>
+      </c>
+      <c r="I107" s="15">
+        <v>0</v>
+      </c>
+      <c r="J107" s="15">
+        <v>298323</v>
+      </c>
+      <c r="K107" s="15">
+        <v>88451</v>
+      </c>
+      <c r="L107" s="15">
+        <v>75975</v>
+      </c>
+      <c r="M107" s="15">
+        <v>179182</v>
+      </c>
+      <c r="N107" s="15">
         <v>144458</v>
       </c>
-      <c r="F107" s="15">
+      <c r="O107" s="15">
         <v>203293</v>
       </c>
-      <c r="G107" s="15">
+      <c r="P107" s="15">
         <v>271525</v>
       </c>
-      <c r="H107" s="15">
+      <c r="Q107" s="15">
         <v>341173</v>
       </c>
-      <c r="I107" s="15">
+      <c r="R107" s="15">
         <v>205286</v>
       </c>
-      <c r="J107" s="15">
+      <c r="S107" s="15">
         <v>339466</v>
       </c>
-      <c r="K107" s="15">
+      <c r="T107" s="15">
         <v>803845</v>
       </c>
-      <c r="L107" s="15">
+      <c r="U107" s="15">
         <v>572598</v>
       </c>
-      <c r="M107" s="15">
+      <c r="V107" s="15">
         <v>2585192</v>
       </c>
-      <c r="N107" s="15">
+      <c r="W107" s="15">
         <v>1910527</v>
+      </c>
+      <c r="X107" s="15">
+        <v>1478635</v>
       </c>
     </row>
   </sheetData>
